--- a/templates/API_MMS200MI_UpdItmBasic.xlsx
+++ b/templates/API_MMS200MI_UpdItmBasic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Infor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharrison\PycharmProjects\m3DataConversion\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338F540-3CBE-4432-9334-FE992B3D9D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AA8EC6-0E7E-49F0-8B16-C833F5319484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20352" yWindow="8052" windowWidth="17280" windowHeight="10008" xr2:uid="{A80EFB21-B28A-4827-98CD-4D00A94E773E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A80EFB21-B28A-4827-98CD-4D00A94E773E}"/>
   </bookViews>
   <sheets>
     <sheet name="API_MMS200MI_UpdItmBasic" sheetId="2" r:id="rId1"/>
@@ -4079,7 +4079,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="229">
   <si>
     <t>MESSAGE</t>
   </si>
@@ -4764,6 +4764,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>yes|Opt:T/U/B</t>
   </si>
 </sst>
 </file>
@@ -5884,49 +5887,49 @@
         <v>227</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>227</v>
@@ -5935,52 +5938,52 @@
         <v>227</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>227</v>
@@ -6007,208 +6010,208 @@
         <v>227</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BE3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BF3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="BG3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BH3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BI3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BJ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BK3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BL3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BM3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BN3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BO3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BP3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BQ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BR3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BS3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BT3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BU3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BV3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BW3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BX3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BY3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="BZ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CA3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CB3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CC3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CD3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CE3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CF3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CG3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CH3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CI3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CJ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CK3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CL3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CM3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CN3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CO3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CP3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="CQ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CR3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="CS3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CT3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CU3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CV3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CW3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CX3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CY3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="CZ3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DA3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DB3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DC3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DD3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DE3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DF3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DG3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DH3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="DI3" s="6" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:113" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
